--- a/example.xlsx
+++ b/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooki\Desktop\timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DE6534-2371-446B-ACC2-AB4B7565DA6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0389E53-BBF6-47DC-885F-DDA9253F8EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A83F2614-77BB-4E40-B22A-4D73607445F6}"/>
+    <workbookView xWindow="560" yWindow="210" windowWidth="11890" windowHeight="8930" xr2:uid="{A83F2614-77BB-4E40-B22A-4D73607445F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재현 혜지 유진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>병국 예윤 혜지 태훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,49 +110,6 @@
   <si>
     <t>재현 예윤 현빈 희지 
 혜지 유진 태훈 한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재현 혜지 태훈 한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병국 재현 희지 혜지
-한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병국 재현 예윤 희지 
-혜지 준범 유진 한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재현 예윤 혜지 유진
-태훈 한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병국 재현 예윤 현빈 
-희지 혜지 태훈 한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준범 한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예윤 준범 유진 한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병국 재현 예윤 현빈 
-희지 혜지 준범 유진
-한솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재현 예윤 현빈 희지
-혜지 준범 유진 한솔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,6 +127,58 @@
     <t>병국 재현 예윤 현빈 
 희지 혜지 유진 태훈
 한솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재현 혜지 유진 서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재현 혜지 태훈 한솔
+서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병국 재현 희지 혜지
+한솔 서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병국 재현 예윤 희지 
+혜지 준범 유진 한솔
+서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재현 예윤 혜지 유진
+태훈 한솔 서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병국 재현 예윤 현빈 
+희지 혜지 태훈 한솔
+서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준범 한솔 서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예윤 준범 유진 한솔
+서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병국 재현 예윤 현빈 
+희지 혜지 준범 유진
+한솔 서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재현 예윤 현빈 희지
+혜지 준범 유진 한솔
+서연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67679E8B-2C9D-4C53-A497-5977A7F971C7}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -554,19 +559,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
@@ -574,16 +579,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
@@ -591,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
@@ -608,67 +613,67 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
